--- a/excel/square.xlsx
+++ b/excel/square.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hamilton\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989AF98F-5071-44F3-B41A-E421AA6B8C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="8520" yWindow="2355" windowWidth="18285" windowHeight="12375" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,14 +25,68 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+  <si>
+    <r>
+      <t>Tri3 L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2误差</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Tri3 H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1误差</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +114,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,38 +391,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" dyDescent="0.2">
       <c r="A2">
-        <v>-1.006453207319549</v>
+        <v>-1.0064532073195489</v>
       </c>
       <c r="B2">
         <v>-0.3979400086720376</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" dyDescent="0.2">
       <c r="A3">
         <v>-1.6629297369200093</v>
       </c>
       <c r="B3">
-        <v>-0.6989700043360187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>-0.69897000433601875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" dyDescent="0.2">
       <c r="A4">
         <v>-2.1520912718383003</v>
       </c>
       <c r="B4">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" dyDescent="0.2">
       <c r="A5">
         <v>-2.750938252673214</v>
       </c>
@@ -370,6 +431,89 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DC59C5-37C8-4169-858B-E5105B632EEB}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" dyDescent="0.2">
+      <c r="A2">
+        <v>-0.12501096802821737</v>
+      </c>
+      <c r="B2">
+        <v>-0.3979400086720376</v>
+      </c>
+      <c r="C2">
+        <v>-1.006453207322124</v>
+      </c>
+      <c r="D2">
+        <v>-0.3979400086720376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" dyDescent="0.2">
+      <c r="A3">
+        <v>-0.4943653638300383</v>
+      </c>
+      <c r="B3">
+        <v>-0.6989700043360187</v>
+      </c>
+      <c r="C3">
+        <v>-1.6629297369230176</v>
+      </c>
+      <c r="D3">
+        <v>-0.69897000433601875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" dyDescent="0.2">
+      <c r="A4">
+        <v>-0.6777094394948104</v>
+      </c>
+      <c r="B4">
+        <v>-1.0</v>
+      </c>
+      <c r="C4">
+        <v>-2.152091271840463</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" dyDescent="0.2">
+      <c r="A5">
+        <v>-0.9769874610980095</v>
+      </c>
+      <c r="B5">
+        <v>-1.3010299956639813</v>
+      </c>
+      <c r="C5">
+        <v>-2.7509382526611277</v>
+      </c>
+      <c r="D5">
+        <v>-1.3010299956639813</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel/square.xlsx
+++ b/excel/square.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hamilton\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989AF98F-5071-44F3-B41A-E421AA6B8C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8169A146-1D33-4A21-AC60-D59D0D74F217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8520" yWindow="2355" windowWidth="18285" windowHeight="12375" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -441,7 +442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DC59C5-37C8-4169-858B-E5105B632EEB}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -471,44 +472,89 @@
     </row>
     <row r="3" spans="1:4" dyDescent="0.2">
       <c r="A3">
-        <v>-0.4943653638300383</v>
+        <v>-0.49436536383003832</v>
+      </c>
+      <c r="B3">
+        <v>-0.69897000433601875</v>
+      </c>
+      <c r="C3">
+        <v>-1.6629297369230176</v>
+      </c>
+      <c r="D3">
+        <v>-0.69897000433601875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" dyDescent="0.2">
+      <c r="A4">
+        <v>-0.67770943949481044</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="C4">
+        <v>-2.152091271840463</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" dyDescent="0.2">
+      <c r="A5">
+        <v>-0.97698746109800949</v>
+      </c>
+      <c r="B5">
+        <v>-1.3010299956639813</v>
+      </c>
+      <c r="C5">
+        <v>-2.7509382526611277</v>
+      </c>
+      <c r="D5">
+        <v>-1.3010299956639813</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB1E02C-722F-41A9-B9A6-7973B8395568}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>-1.6950243796149422</v>
+      </c>
+      <c r="B2">
+        <v>-0.3979400086720376</v>
+      </c>
+      <c r="E2">
+        <v>-1.6950243796149422</v>
+      </c>
+      <c r="F2">
+        <v>-0.3979400086720376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>-2.381744874071454</v>
       </c>
       <c r="B3">
         <v>-0.6989700043360187</v>
       </c>
-      <c r="C3">
-        <v>-1.6629297369230176</v>
-      </c>
-      <c r="D3">
-        <v>-0.69897000433601875</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
-        <v>-0.6777094394948104</v>
+        <v>-3.053028912746198</v>
       </c>
       <c r="B4">
         <v>-1.0</v>
-      </c>
-      <c r="C4">
-        <v>-2.152091271840463</v>
-      </c>
-      <c r="D4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" dyDescent="0.2">
-      <c r="A5">
-        <v>-0.9769874610980095</v>
-      </c>
-      <c r="B5">
-        <v>-1.3010299956639813</v>
-      </c>
-      <c r="C5">
-        <v>-2.7509382526611277</v>
-      </c>
-      <c r="D5">
-        <v>-1.3010299956639813</v>
       </c>
     </row>
   </sheetData>
